--- a/Work Docu/Lumir_sw_actionItem.xlsx
+++ b/Work Docu/Lumir_sw_actionItem.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Dev Docu\Work Docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Action Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -760,7 +761,7 @@
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1150,4 +1151,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Work Docu/Lumir_sw_actionItem.xlsx
+++ b/Work Docu/Lumir_sw_actionItem.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">Action Item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +37,6 @@
   </si>
   <si>
     <t>Start Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,6 +132,59 @@
   </si>
   <si>
     <t xml:space="preserve">Operation Manaul </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차세대중형위성 1호 후처리 관련 문제점 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJ.JEONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 영상분석결과 2000line rate 수행시, 항상 PAN0와 PAN2의 첫번째 8라인카운터가 빠지고(헤더에 0~7번까지 누락), 맨끝 부분의 영상이미지에 가비지 데이터가 들어가는 현상이 발생.
+2. 해당 미션 수행하는 미션 이후에  수행하는 미션에 대해서도 동일한 현상이 발견되고, 그 뒤의 미션에서 부터는 나타나지않습니다( 당연히 2000 line rate 미션 전에서도 발생하지 않습니다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTP 자료 및 SBC F/W F/U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJ.JEONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Source 필요 함. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +526,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -758,27 +811,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="3" max="3" width="47.375" customWidth="1"/>
     <col min="4" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" customWidth="1"/>
-    <col min="10" max="10" width="57.5" customWidth="1"/>
+    <col min="9" max="9" width="70.25" customWidth="1"/>
+    <col min="10" max="10" width="46" customWidth="1"/>
+    <col min="11" max="11" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>0</v>
@@ -787,49 +842,80 @@
         <v>1</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="17">
+        <v>44020</v>
+      </c>
+      <c r="H5" s="17">
+        <v>44027</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
@@ -838,9 +924,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1"/>
@@ -849,9 +936,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
@@ -860,9 +948,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
@@ -871,9 +960,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
@@ -882,9 +972,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
@@ -893,9 +984,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
@@ -904,9 +996,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
@@ -915,9 +1008,10 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
@@ -926,37 +1020,39 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G15" s="17">
         <v>44013</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+      <c r="J15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -964,12 +1060,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -977,12 +1074,13 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -990,9 +1088,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
@@ -1001,9 +1100,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
@@ -1012,9 +1112,10 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
@@ -1023,23 +1124,24 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G22" s="17">
         <v>44013</v>
@@ -1047,12 +1149,13 @@
       <c r="H22" s="17">
         <v>44042</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="17"/>
+      <c r="J22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
@@ -1061,9 +1164,10 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
@@ -1072,9 +1176,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
@@ -1083,9 +1188,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
@@ -1094,26 +1200,28 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
@@ -1122,9 +1230,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
@@ -1133,9 +1242,10 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
       <c r="C30" s="6"/>
       <c r="D30" s="3"/>
@@ -1144,7 +1254,8 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Work Docu/Lumir_sw_actionItem.xlsx
+++ b/Work Docu/Lumir_sw_actionItem.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t xml:space="preserve">Action Item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST Process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>차세대중형위성 1호 후처리 관련 문제점 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +180,148 @@
   </si>
   <si>
     <t xml:space="preserve">1. Source 필요 함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTNPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTNPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Pheriperal DMA 연결 - CoWork with FPGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Core </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr.choi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr.choi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETB 시험 at KARI 
+- 사전 기능 시험 &amp; 최종 시험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTNPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IDHU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IDHU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후처리 프로그램 오류 문제점 분석 및 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yj.jeong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yj.jeong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bootloader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 3주 소요 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAND Filesystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAND HAL 기능 개선 ( NAND)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Multibit Error 원인 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SBC-EGSE ( GUI ) 
+- Porintg </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh.shin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- Source 분석 진행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USRT 4MHz 동작 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr.choi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,6 +667,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -851,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>4</v>
@@ -868,16 +1008,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -887,19 +1027,19 @@
     </row>
     <row r="5" spans="2:11" ht="99" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="17">
         <v>44020</v>
@@ -908,42 +1048,74 @@
         <v>44027</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="17">
+        <v>44047</v>
+      </c>
+      <c r="H6" s="17">
+        <v>44055</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -952,10 +1124,16 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -963,33 +1141,55 @@
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="17">
+        <v>44063</v>
+      </c>
+      <c r="H10" s="17">
+        <v>44063</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="17">
+        <v>44067</v>
+      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -999,74 +1199,96 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+    <row r="13" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="17">
+        <v>44062</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="17">
+        <v>44064</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="17">
-        <v>44013</v>
-      </c>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
+    <row r="16" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="17">
+        <v>44013</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1080,7 +1302,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1093,7 +1315,9 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1127,44 +1351,44 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="17">
         <v>44013</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H23" s="17">
         <v>44042</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
@@ -1205,15 +1429,9 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
-      <c r="C27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1223,9 +1441,15 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1245,17 +1469,29 @@
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Work Docu/Lumir_sw_actionItem.xlsx
+++ b/Work Docu/Lumir_sw_actionItem.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t xml:space="preserve">Action Item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>In progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. Source 필요 함. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,18 +289,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sh.shin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>low</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>In Progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">- Source 분석 진행 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,6 +310,41 @@
   </si>
   <si>
     <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBC-EGSE ( GUI ) 
+- 매뉴얼 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBC-EGSE(GUI) 
+- Log File 저장 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBC-EGSE(GUI)
+- Install 프로그램 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K31"/>
+  <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1050,7 @@
     </row>
     <row r="5" spans="2:11" ht="99" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>26</v>
@@ -1039,7 +1062,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G5" s="17">
         <v>44020</v>
@@ -1051,25 +1074,25 @@
         <v>29</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="17">
         <v>44047</v>
@@ -1083,38 +1106,38 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1125,14 +1148,14 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1143,17 +1166,17 @@
     </row>
     <row r="10" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="17">
         <v>44063</v>
@@ -1167,10 +1190,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1180,7 +1203,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
@@ -1188,7 +1211,7 @@
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1204,96 +1227,96 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="17">
         <v>44062</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="17">
+        <v>44078</v>
+      </c>
       <c r="I13" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="C14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="17">
-        <v>44064</v>
+        <v>44081</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="17">
+        <v>44081</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="17">
-        <v>44013</v>
-      </c>
+    <row r="16" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="17">
+        <v>44064</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1301,9 +1324,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1313,26 +1334,42 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
+    <row r="19" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="17">
+        <v>44013</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1341,10 +1378,14 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1353,7 +1394,9 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1363,32 +1406,16 @@
       <c r="J22" s="1"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="17">
-        <v>44013</v>
-      </c>
-      <c r="H23" s="17">
-        <v>44042</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18" t="s">
-        <v>13</v>
-      </c>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
@@ -1415,16 +1442,32 @@
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+    <row r="26" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="17">
+        <v>44013</v>
+      </c>
+      <c r="H26" s="17">
+        <v>44042</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
@@ -1441,15 +1484,9 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1481,17 +1518,59 @@
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="8"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4"/>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Work Docu/Lumir_sw_actionItem.xlsx
+++ b/Work Docu/Lumir_sw_actionItem.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t xml:space="preserve">Action Item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>In progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>In progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,6 +337,62 @@
   <si>
     <t>SBC-EGSE(GUI)
 - Install 프로그램 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install 프로그램 제작이 필요 없다는 의견에 의해서 관련 업무 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KARI에서 관련 인터페이스 규격을 받아 들이지 않아, DMA 구조 변경으로 선회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- draft Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr.choi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초 동작 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- P/R 선택적 Booting Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr.choi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Application RAM copy booting 동작 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr.choi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 확인 완료 / QM 을 이용 ROM booting 동작 확인 후 관련 내용 종결 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +740,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K34"/>
+  <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="17">
         <v>44020</v>
@@ -1202,129 +1253,119 @@
         <v>44067</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="1"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="17">
+        <v>44088</v>
+      </c>
+      <c r="H12" s="17">
+        <v>44092</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>63</v>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G13" s="17">
-        <v>44062</v>
-      </c>
-      <c r="H13" s="17">
-        <v>44078</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>44095</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="C14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G14" s="17">
-        <v>44081</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="1"/>
+        <v>44088</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
-      <c r="C15" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="21"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="17">
-        <v>44081</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
-      <c r="C16" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="17">
-        <v>44064</v>
-      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1334,87 +1375,109 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G19" s="17">
-        <v>44013</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>44062</v>
+      </c>
+      <c r="H19" s="17">
+        <v>44078</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
+      <c r="C20" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="G20" s="17">
+        <v>44081</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
-      <c r="C21" s="5" t="s">
-        <v>24</v>
+      <c r="C21" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="G21" s="17">
+        <v>44081</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
+      <c r="C22" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="17"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="17">
+        <v>44064</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="2"/>
     </row>
@@ -1430,52 +1493,58 @@
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+    <row r="25" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="17">
+        <v>44013</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="17">
-        <v>44013</v>
-      </c>
-      <c r="H26" s="17">
-        <v>44042</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18" t="s">
-        <v>13</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1484,7 +1553,9 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1520,15 +1591,9 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
-      <c r="C31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1536,16 +1601,32 @@
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+    <row r="32" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="17">
+        <v>44013</v>
+      </c>
+      <c r="H32" s="17">
+        <v>44042</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
@@ -1560,17 +1641,95 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
